--- a/214 Sullivan 2023 Inventory Analytics.xlsx
+++ b/214 Sullivan 2023 Inventory Analytics.xlsx
@@ -541,6 +541,41 @@
     <comment authorId="0" ref="N1">
       <text>
         <t xml:space="preserve">Includes all untagged cards that are not expired.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B4">
+      <text>
+        <t xml:space="preserve">Multiple Samsung S8 devices were recovered.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C4">
+      <text>
+        <t xml:space="preserve">Multiple Samsung S8 devices were recovered.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D4">
+      <text>
+        <t xml:space="preserve">Multiple Samsung S8 devices were recovered.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5">
+      <text>
+        <t xml:space="preserve">Shipped devices to Stefanini devices before the return count was implemented.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C5">
+      <text>
+        <t xml:space="preserve">Shipped devices to Stefanini devices before the return count was implemented.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D5">
+      <text>
+        <t xml:space="preserve">Shipped devices to Stefanini devices before the return count was implemented.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C13">
+      <text>
+        <t xml:space="preserve">30 devices were shipped to Stefanini for BI-DEMO purposes</t>
       </text>
     </comment>
   </commentList>
@@ -1884,11 +1919,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2107173254"/>
-        <c:axId val="1636477517"/>
+        <c:axId val="121419086"/>
+        <c:axId val="392579436"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2107173254"/>
+        <c:axId val="121419086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,10 +1975,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636477517"/>
+        <c:crossAx val="392579436"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1636477517"/>
+        <c:axId val="392579436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2053,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107173254"/>
+        <c:crossAx val="121419086"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2142,11 +2177,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1610206758"/>
-        <c:axId val="548476352"/>
+        <c:axId val="1119759112"/>
+        <c:axId val="1611962695"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1610206758"/>
+        <c:axId val="1119759112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,10 +2256,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548476352"/>
+        <c:crossAx val="1611962695"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548476352"/>
+        <c:axId val="1611962695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,7 +2334,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610206758"/>
+        <c:crossAx val="1119759112"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2493,11 +2528,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1053158108"/>
-        <c:axId val="801958560"/>
+        <c:axId val="1489831828"/>
+        <c:axId val="760956215"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1053158108"/>
+        <c:axId val="1489831828"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,10 +2584,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="801958560"/>
+        <c:crossAx val="760956215"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="801958560"/>
+        <c:axId val="760956215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,7 +2662,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053158108"/>
+        <c:crossAx val="1489831828"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -12555,44 +12590,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44956.0)</f>
         <v>44956</v>
       </c>
-      <c r="B121" s="44"/>
-      <c r="C121" s="44"/>
+      <c r="B121" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
+      </c>
+      <c r="C121" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),106.0)</f>
+        <v>106</v>
+      </c>
       <c r="D121" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="E121" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-116.0)</f>
-        <v>-116</v>
-      </c>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-1.0)</f>
+        <v>-1</v>
+      </c>
+      <c r="F121" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G121" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
+      </c>
       <c r="H121" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="I121" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-132.0)</f>
-        <v>-132</v>
-      </c>
-      <c r="J121" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
+      </c>
+      <c r="J121" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
+      </c>
       <c r="K121" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-90.0)</f>
-        <v>-90</v>
-      </c>
-      <c r="L121" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
+        <v>601</v>
+      </c>
       <c r="M121" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-601.0)</f>
-        <v>-601</v>
-      </c>
-      <c r="N121" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="N121" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O121" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
+        <v>601</v>
       </c>
       <c r="P121" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-601.0)</f>
-        <v>-601</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -12600,40 +12656,61 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44957.0)</f>
         <v>44957</v>
       </c>
-      <c r="B122" s="44"/>
-      <c r="C122" s="44"/>
+      <c r="B122" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
+      </c>
+      <c r="C122" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
+      </c>
       <c r="D122" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
       </c>
       <c r="E122" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
+        <v>5</v>
+      </c>
+      <c r="F122" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G122" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
       <c r="H122" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="I122" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="J122" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
+      </c>
       <c r="K122" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="L122" s="44"/>
+      <c r="L122" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
+        <v>601</v>
+      </c>
       <c r="M122" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="N122" s="44"/>
+      <c r="N122" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O122" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
+        <v>601</v>
       </c>
       <c r="P122" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12645,44 +12722,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY('February 2023'!A2:P20,""select *"")"),44958.0)</f>
         <v>44958</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
+      <c r="B123" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
+      </c>
+      <c r="C123" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
+      </c>
       <c r="D123" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
       </c>
       <c r="E123" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2.0)</f>
+        <v>-2</v>
+      </c>
+      <c r="F123" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G123" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="H123" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="I123" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-4.0)</f>
+        <v>-4</v>
+      </c>
+      <c r="J123" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
+      </c>
       <c r="K123" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="L123" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-5.0)</f>
+        <v>-5</v>
+      </c>
+      <c r="L123" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),591.0)</f>
+        <v>591</v>
+      </c>
       <c r="M123" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="N123" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
+        <v>-10</v>
+      </c>
+      <c r="N123" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O123" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),591.0)</f>
+        <v>591</v>
       </c>
       <c r="P123" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="124">
@@ -12690,44 +12788,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44959.0)</f>
         <v>44959</v>
       </c>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44"/>
+      <c r="B124" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
+      </c>
+      <c r="C124" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
+        <v>104</v>
+      </c>
       <c r="D124" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="E124" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-3.0)</f>
+        <v>-3</v>
+      </c>
+      <c r="F124" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G124" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
       <c r="H124" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
       </c>
       <c r="I124" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-1.0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J124" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
+      </c>
       <c r="K124" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="L124" s="44"/>
+      <c r="L124" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),586.0)</f>
+        <v>586</v>
+      </c>
       <c r="M124" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="N124" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-5.0)</f>
+        <v>-5</v>
+      </c>
+      <c r="N124" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O124" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),586.0)</f>
+        <v>586</v>
       </c>
       <c r="P124" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-5.0)</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="125">
@@ -12735,44 +12854,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44960.0)</f>
         <v>44960</v>
       </c>
-      <c r="B125" s="44"/>
-      <c r="C125" s="44"/>
+      <c r="B125" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="C125" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
+        <v>147</v>
+      </c>
       <c r="D125" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
       </c>
       <c r="E125" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
+      </c>
+      <c r="F125" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G125" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
+      </c>
       <c r="H125" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
       </c>
       <c r="I125" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
+        <v>43</v>
+      </c>
+      <c r="J125" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
+      </c>
       <c r="K125" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="L125" s="44"/>
+      <c r="L125" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),576.0)</f>
+        <v>576</v>
+      </c>
       <c r="M125" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="N125" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
+        <v>-10</v>
+      </c>
+      <c r="N125" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O125" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),576.0)</f>
+        <v>576</v>
       </c>
       <c r="P125" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="126">
@@ -12780,44 +12920,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44963.0)</f>
         <v>44963</v>
       </c>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
+      <c r="B126" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="C126" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
+        <v>125</v>
+      </c>
       <c r="D126" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
       </c>
       <c r="E126" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-20.0)</f>
+        <v>-20</v>
+      </c>
+      <c r="F126" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G126" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="H126" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="I126" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-32.0)</f>
+        <v>-32</v>
+      </c>
+      <c r="J126" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),85.0)</f>
+        <v>85</v>
+      </c>
       <c r="K126" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="L126" s="44"/>
+      <c r="L126" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
+      </c>
       <c r="M126" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="N126" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-15.0)</f>
+        <v>-15</v>
+      </c>
+      <c r="N126" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O126" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
       </c>
       <c r="P126" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-15.0)</f>
+        <v>-15</v>
       </c>
     </row>
     <row r="127">
@@ -12825,40 +12986,61 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44964.0)</f>
         <v>44964</v>
       </c>
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
+      <c r="B127" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="C127" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
+        <v>122</v>
+      </c>
       <c r="D127" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
+        <v>124</v>
       </c>
       <c r="E127" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-4.0)</f>
+        <v>-4</v>
+      </c>
+      <c r="F127" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G127" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="H127" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="I127" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-4.0)</f>
+        <v>-4</v>
+      </c>
+      <c r="J127" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
+        <v>87</v>
+      </c>
       <c r="K127" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="L127" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="L127" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
+      </c>
       <c r="M127" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="N127" s="44"/>
+      <c r="N127" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O127" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
       </c>
       <c r="P127" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12870,40 +13052,61 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44965.0)</f>
         <v>44965</v>
       </c>
-      <c r="B128" s="44"/>
-      <c r="C128" s="44"/>
+      <c r="B128" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
+      </c>
       <c r="D128" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
       </c>
       <c r="E128" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-4.0)</f>
+        <v>-4</v>
+      </c>
+      <c r="F128" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G128" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
+      </c>
       <c r="H128" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
+        <v>147</v>
       </c>
       <c r="I128" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
+      </c>
+      <c r="J128" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
+        <v>87</v>
+      </c>
       <c r="K128" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="L128" s="44"/>
+      <c r="L128" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
+      </c>
       <c r="M128" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="N128" s="44"/>
+      <c r="N128" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O128" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
       </c>
       <c r="P128" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12915,40 +13118,61 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44966.0)</f>
         <v>44966</v>
       </c>
-      <c r="B129" s="44"/>
-      <c r="C129" s="44"/>
+      <c r="B129" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
+      </c>
+      <c r="C129" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
+      </c>
       <c r="D129" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
+        <v>122</v>
       </c>
       <c r="E129" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F129" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G129" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
       <c r="H129" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="I129" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J129" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-7.0)</f>
+        <v>-7</v>
+      </c>
+      <c r="J129" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
+        <v>87</v>
+      </c>
       <c r="K129" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="L129" s="44"/>
+      <c r="L129" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
+      </c>
       <c r="M129" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="N129" s="44"/>
+      <c r="N129" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O129" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
       </c>
       <c r="P129" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -12960,40 +13184,61 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44967.0)</f>
         <v>44967</v>
       </c>
-      <c r="B130" s="44"/>
-      <c r="C130" s="44"/>
+      <c r="B130" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
+      </c>
+      <c r="C130" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
+      </c>
       <c r="D130" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
       </c>
       <c r="E130" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-1.0)</f>
+        <v>-1</v>
+      </c>
+      <c r="F130" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G130" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
       <c r="H130" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
+        <v>139</v>
       </c>
       <c r="I130" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-1.0)</f>
+        <v>-1</v>
+      </c>
+      <c r="J130" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),83.0)</f>
+        <v>83</v>
+      </c>
       <c r="K130" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="L130" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-4.0)</f>
+        <v>-4</v>
+      </c>
+      <c r="L130" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
+      </c>
       <c r="M130" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="N130" s="44"/>
+      <c r="N130" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O130" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),561.0)</f>
+        <v>561</v>
       </c>
       <c r="P130" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -13005,44 +13250,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44970.0)</f>
         <v>44970</v>
       </c>
-      <c r="B131" s="44"/>
-      <c r="C131" s="44"/>
+      <c r="B131" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
+      </c>
+      <c r="C131" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
+      </c>
       <c r="D131" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
+        <v>114</v>
       </c>
       <c r="E131" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-7.0)</f>
+        <v>-7</v>
+      </c>
+      <c r="F131" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G131" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
+      </c>
       <c r="H131" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="I131" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J131" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="J131" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
+      </c>
       <c r="K131" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="L131" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="L131" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),541.0)</f>
+        <v>541</v>
+      </c>
       <c r="M131" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="N131" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-20.0)</f>
+        <v>-20</v>
+      </c>
+      <c r="N131" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O131" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),541.0)</f>
+        <v>541</v>
       </c>
       <c r="P131" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-20.0)</f>
+        <v>-20</v>
       </c>
     </row>
     <row r="132">
@@ -13050,44 +13316,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44971.0)</f>
         <v>44971</v>
       </c>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
+      <c r="B132" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="C132" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
+      </c>
       <c r="D132" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
       </c>
       <c r="E132" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="F132" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G132" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="H132" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
       </c>
       <c r="I132" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-7.0)</f>
+        <v>-7</v>
+      </c>
+      <c r="J132" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),82.0)</f>
+        <v>82</v>
+      </c>
       <c r="K132" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="L132" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2.0)</f>
+        <v>-2</v>
+      </c>
+      <c r="L132" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),536.0)</f>
+        <v>536</v>
+      </c>
       <c r="M132" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="N132" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-5.0)</f>
+        <v>-5</v>
+      </c>
+      <c r="N132" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O132" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),536.0)</f>
+        <v>536</v>
       </c>
       <c r="P132" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-5.0)</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="133">
@@ -13095,44 +13382,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44972.0)</f>
         <v>44972</v>
       </c>
-      <c r="B133" s="44"/>
-      <c r="C133" s="44"/>
+      <c r="B133" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
+      </c>
+      <c r="C133" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
+      </c>
       <c r="D133" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
       </c>
       <c r="E133" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-6.0)</f>
+        <v>-6</v>
+      </c>
+      <c r="F133" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G133" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="H133" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
+        <v>127</v>
       </c>
       <c r="I133" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J133" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-6.0)</f>
+        <v>-6</v>
+      </c>
+      <c r="J133" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
+      </c>
       <c r="K133" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="L133" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-1.0)</f>
+        <v>-1</v>
+      </c>
+      <c r="L133" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),523.0)</f>
+        <v>523</v>
+      </c>
       <c r="M133" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="N133" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-13.0)</f>
+        <v>-13</v>
+      </c>
+      <c r="N133" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O133" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),523.0)</f>
+        <v>523</v>
       </c>
       <c r="P133" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-13.0)</f>
+        <v>-13</v>
       </c>
     </row>
     <row r="134">
@@ -13140,44 +13448,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44973.0)</f>
         <v>44973</v>
       </c>
-      <c r="B134" s="44"/>
-      <c r="C134" s="44"/>
+      <c r="B134" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
+      </c>
+      <c r="C134" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
+        <v>64</v>
+      </c>
       <c r="D134" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
       </c>
       <c r="E134" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-35.0)</f>
+        <v>-35</v>
+      </c>
+      <c r="F134" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G134" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
       <c r="H134" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="I134" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J134" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-33.0)</f>
+        <v>-33</v>
+      </c>
+      <c r="J134" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81.0)</f>
+        <v>81</v>
+      </c>
       <c r="K134" s="45">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
         <v>0</v>
       </c>
-      <c r="L134" s="44"/>
+      <c r="L134" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
+        <v>513</v>
+      </c>
       <c r="M134" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="N134" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
+        <v>-10</v>
+      </c>
+      <c r="N134" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O134" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
+        <v>513</v>
       </c>
       <c r="P134" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="135">
@@ -13185,44 +13514,65 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44974.0)</f>
         <v>44974</v>
       </c>
-      <c r="B135" s="44"/>
-      <c r="C135" s="44"/>
+      <c r="B135" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
+        <v>14</v>
+      </c>
+      <c r="C135" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
+        <v>59</v>
+      </c>
       <c r="D135" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
       </c>
       <c r="E135" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-3.0)</f>
+        <v>-3</v>
+      </c>
+      <c r="F135" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="G135" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="H135" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
       </c>
       <c r="I135" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="J135" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-5.0)</f>
+        <v>-5</v>
+      </c>
+      <c r="J135" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
+        <v>77</v>
+      </c>
       <c r="K135" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="L135" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-4.0)</f>
+        <v>-4</v>
+      </c>
+      <c r="L135" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),503.0)</f>
+        <v>503</v>
+      </c>
       <c r="M135" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
-      <c r="N135" s="44"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
+        <v>-10</v>
+      </c>
+      <c r="N135" s="44">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
       <c r="O135" s="44">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),503.0)</f>
+        <v>503</v>
       </c>
       <c r="P135" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="136">
@@ -13237,8 +13587,8 @@
         <v>0</v>
       </c>
       <c r="E136" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-73.0)</f>
+        <v>-73</v>
       </c>
       <c r="F136" s="44"/>
       <c r="G136" s="44"/>
@@ -13247,18 +13597,18 @@
         <v>0</v>
       </c>
       <c r="I136" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-89.0)</f>
+        <v>-89</v>
       </c>
       <c r="J136" s="44"/>
       <c r="K136" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-77.0)</f>
+        <v>-77</v>
       </c>
       <c r="L136" s="44"/>
       <c r="M136" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-503.0)</f>
+        <v>-503</v>
       </c>
       <c r="N136" s="44"/>
       <c r="O136" s="44">
@@ -13266,8 +13616,8 @@
         <v>0</v>
       </c>
       <c r="P136" s="45">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-503.0)</f>
+        <v>-503</v>
       </c>
     </row>
     <row r="137">
@@ -32100,40 +32450,40 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B3,'Summary (2022-2023)'!$A$2:A999))))"),44932.0)</f>
-        <v>44932</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B3,'Summary (2022-2023)'!$A$2:A999))))"),44956.0)</f>
+        <v>44956</v>
       </c>
       <c r="C2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="I2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>679</v>
+        <v>601</v>
       </c>
       <c r="K2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32141,7 +32491,7 @@
       </c>
       <c r="L2" s="44">
         <f>vlookup(B2,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>679</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3">
@@ -32149,40 +32499,40 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B4,'Summary (2022-2023)'!$A$2:A999))))"),44935.0)</f>
-        <v>44935</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B4,'Summary (2022-2023)'!$A$2:A999))))"),44957.0)</f>
+        <v>44957</v>
       </c>
       <c r="C3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="G3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="I3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>676</v>
+        <v>601</v>
       </c>
       <c r="K3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32190,7 +32540,7 @@
       </c>
       <c r="L3" s="44">
         <f>vlookup(B3,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>676</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4">
@@ -32198,40 +32548,40 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B5,'Summary (2022-2023)'!$A$2:A999))))"),44936.0)</f>
-        <v>44936</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B5,'Summary (2022-2023)'!$A$2:A999))))"),44958.0)</f>
+        <v>44958</v>
       </c>
       <c r="C4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="F4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="I4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>676</v>
+        <v>591</v>
       </c>
       <c r="K4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32239,7 +32589,7 @@
       </c>
       <c r="L4" s="44">
         <f>vlookup(B4,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>676</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5">
@@ -32247,24 +32597,24 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B6,'Summary (2022-2023)'!$A$2:A999))))"),44937.0)</f>
-        <v>44937</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B6,'Summary (2022-2023)'!$A$2:A999))))"),44959.0)</f>
+        <v>44959</v>
       </c>
       <c r="C5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="F5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
@@ -32272,15 +32622,15 @@
       </c>
       <c r="H5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="I5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>661</v>
+        <v>586</v>
       </c>
       <c r="K5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32288,7 +32638,7 @@
       </c>
       <c r="L5" s="44">
         <f>vlookup(B5,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>661</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6">
@@ -32296,40 +32646,40 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B7,'Summary (2022-2023)'!$A$2:A999))))"),44938.0)</f>
-        <v>44938</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B7,'Summary (2022-2023)'!$A$2:A999))))"),44960.0)</f>
+        <v>44960</v>
       </c>
       <c r="C6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>661</v>
+        <v>576</v>
       </c>
       <c r="K6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32337,7 +32687,7 @@
       </c>
       <c r="L6" s="44">
         <f>vlookup(B6,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>661</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7">
@@ -32345,40 +32695,40 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B8,'Summary (2022-2023)'!$A$2:A999))))"),44939.0)</f>
-        <v>44939</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B8,'Summary (2022-2023)'!$A$2:A999))))"),44963.0)</f>
+        <v>44963</v>
       </c>
       <c r="C7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="I7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="K7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32386,7 +32736,7 @@
       </c>
       <c r="L7" s="44">
         <f>vlookup(B7,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>651</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8">
@@ -32394,40 +32744,40 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B9,'Summary (2022-2023)'!$A$2:A999))))"),44943.0)</f>
-        <v>44943</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B9,'Summary (2022-2023)'!$A$2:A999))))"),44964.0)</f>
+        <v>44964</v>
       </c>
       <c r="C8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="F8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="I8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="K8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32435,7 +32785,7 @@
       </c>
       <c r="L8" s="44">
         <f>vlookup(B8,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>651</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9">
@@ -32443,40 +32793,40 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B10,'Summary (2022-2023)'!$A$2:A999))))"),44944.0)</f>
-        <v>44944</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B10,'Summary (2022-2023)'!$A$2:A999))))"),44965.0)</f>
+        <v>44965</v>
       </c>
       <c r="C9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="F9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="I9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>646</v>
+        <v>561</v>
       </c>
       <c r="K9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32484,7 +32834,7 @@
       </c>
       <c r="L9" s="44">
         <f>vlookup(B9,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>646</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10">
@@ -32492,24 +32842,24 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B11,'Summary (2022-2023)'!$A$2:A999))))"),44945.0)</f>
-        <v>44945</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B11,'Summary (2022-2023)'!$A$2:A999))))"),44966.0)</f>
+        <v>44966</v>
       </c>
       <c r="C10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="F10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
@@ -32517,15 +32867,15 @@
       </c>
       <c r="H10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="I10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>646</v>
+        <v>561</v>
       </c>
       <c r="K10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32533,7 +32883,7 @@
       </c>
       <c r="L10" s="44">
         <f>vlookup(B10,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>646</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11">
@@ -32541,20 +32891,20 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B12,'Summary (2022-2023)'!$A$2:A999))))"),44946.0)</f>
-        <v>44946</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B12,'Summary (2022-2023)'!$A$2:A999))))"),44967.0)</f>
+        <v>44967</v>
       </c>
       <c r="C11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="F11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
@@ -32562,19 +32912,19 @@
       </c>
       <c r="G11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="I11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>641</v>
+        <v>561</v>
       </c>
       <c r="K11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32582,7 +32932,7 @@
       </c>
       <c r="L11" s="44">
         <f>vlookup(B11,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>641</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12">
@@ -32590,20 +32940,20 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B13,'Summary (2022-2023)'!$A$2:A999))))"),44949.0)</f>
-        <v>44949</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B13,'Summary (2022-2023)'!$A$2:A999))))"),44970.0)</f>
+        <v>44970</v>
       </c>
       <c r="C12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
@@ -32611,19 +32961,19 @@
       </c>
       <c r="G12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="I12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>641</v>
+        <v>541</v>
       </c>
       <c r="K12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32631,7 +32981,7 @@
       </c>
       <c r="L12" s="44">
         <f>vlookup(B12,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>641</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13">
@@ -32639,20 +32989,20 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B14,'Summary (2022-2023)'!$A$2:A999))))"),44950.0)</f>
-        <v>44950</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B14,'Summary (2022-2023)'!$A$2:A999))))"),44971.0)</f>
+        <v>44971</v>
       </c>
       <c r="C13" s="44">
         <f>vlookup(B13,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="44">
         <f>vlookup(B13,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E13" s="44">
         <f>vlookup(B13,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F13" s="44">
         <f>vlookup(B13,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
@@ -32664,15 +33014,15 @@
       </c>
       <c r="H13" s="44">
         <f>vlookup(B13,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I13" s="44">
         <f>vlookup(B13,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J13" s="44">
         <f>vlookup(B13,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>631</v>
+        <v>536</v>
       </c>
       <c r="K13" s="44">
         <f>vlookup(B13,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32680,7 +33030,7 @@
       </c>
       <c r="L13" s="44">
         <f>vlookup(B13,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>631</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14">
@@ -32688,20 +33038,20 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B15,'Summary (2022-2023)'!$A$2:A999))))"),44951.0)</f>
-        <v>44951</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B15,'Summary (2022-2023)'!$A$2:A999))))"),44972.0)</f>
+        <v>44972</v>
       </c>
       <c r="C14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
@@ -32709,19 +33059,19 @@
       </c>
       <c r="G14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="I14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>631</v>
+        <v>523</v>
       </c>
       <c r="K14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32729,7 +33079,7 @@
       </c>
       <c r="L14" s="44">
         <f>vlookup(B14,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>631</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15">
@@ -32737,20 +33087,20 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B16,'Summary (2022-2023)'!$A$2:A999))))"),44952.0)</f>
-        <v>44952</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;B16,'Summary (2022-2023)'!$A$2:A999))))"),44973.0)</f>
+        <v>44973</v>
       </c>
       <c r="C15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="E15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="F15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
@@ -32758,19 +33108,19 @@
       </c>
       <c r="G15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="I15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>631</v>
+        <v>513</v>
       </c>
       <c r="K15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32778,7 +33128,7 @@
       </c>
       <c r="L15" s="44">
         <f>vlookup(B15,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>631</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16">
@@ -32786,20 +33136,20 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="43">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;Today(),'Summary (2022-2023)'!$A$2:A999))))"),44953.0)</f>
-        <v>44953</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(TO_DATE(MAX(IF('Summary (2022-2023)'!$A$2:A999&lt;Today(),'Summary (2022-2023)'!$A$2:A999))))"),44974.0)</f>
+        <v>44974</v>
       </c>
       <c r="C16" s="44">
         <f>vlookup(B16,'Summary (2022-2023)'!$A$1:$P$261,2,FALSE)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D16" s="44">
         <f>vlookup(B16,'Summary (2022-2023)'!$A$1:$P$261,3,FALSE)</f>
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="E16" s="44">
         <f>vlookup(B16,'Summary (2022-2023)'!$A$1:$P$261,4,FALSE)</f>
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F16" s="44">
         <f>vlookup(B16,'Summary (2022-2023)'!$A$1:$P$261,6,FALSE)</f>
@@ -32811,15 +33161,15 @@
       </c>
       <c r="H16" s="44">
         <f>vlookup(B16,'Summary (2022-2023)'!$A$1:$P$261,8,FALSE)</f>
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="I16" s="44">
         <f>vlookup(B16,'Summary (2022-2023)'!$A$1:$P$261,10,FALSE)</f>
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J16" s="44">
         <f>vlookup(B16,'Summary (2022-2023)'!$A$1:$P$261,12,FALSE)</f>
-        <v>601</v>
+        <v>503</v>
       </c>
       <c r="K16" s="44">
         <f>vlookup(B16,'Summary (2022-2023)'!$A$1:$P$261,14,FALSE)</f>
@@ -32827,7 +33177,7 @@
       </c>
       <c r="L16" s="44">
         <f>vlookup(B16,'Summary (2022-2023)'!$A$1:$P$261,15,FALSE)</f>
-        <v>601</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -32876,20 +33226,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY('Summary (2022-2023)'!A2:P350,""select A,B,C,F,G where A &lt;= date '""&amp;text(eomonth(today(),0),""yyyy-mm-dd"")&amp;""' and A &gt;= date '""&amp;text(eomonth(today(),-1)+1,""yyyy-mm-dd"")&amp;""'"")"),44929.0)</f>
-        <v>44929</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("QUERY('Summary (2022-2023)'!A2:P350,""select A,B,C,F,G where A &lt;= date '""&amp;text(eomonth(today(),0),""yyyy-mm-dd"")&amp;""' and A &gt;= date '""&amp;text(eomonth(today(),-1)+1,""yyyy-mm-dd"")&amp;""'"")"),44958.0)</f>
+        <v>44958</v>
       </c>
       <c r="C2" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="D2" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
-        <v>63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
       </c>
       <c r="E2" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
-        <v>98</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F2" s="47">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -32902,24 +33252,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44930.0)</f>
-        <v>44930</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44959.0)</f>
+        <v>44959</v>
       </c>
       <c r="C3" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="D3" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),72.0)</f>
-        <v>72</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),104.0)</f>
+        <v>104</v>
       </c>
       <c r="E3" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F3" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
-        <v>6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -32928,24 +33278,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44931.0)</f>
-        <v>44931</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44960.0)</f>
+        <v>44960</v>
       </c>
       <c r="C4" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80.0)</f>
-        <v>80</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
+        <v>147</v>
       </c>
       <c r="E4" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
-        <v>76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F4" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -32954,20 +33304,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44932.0)</f>
-        <v>44932</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44963.0)</f>
+        <v>44963</v>
       </c>
       <c r="C5" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="D5" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
-        <v>90</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
+        <v>125</v>
       </c>
       <c r="E5" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),66.0)</f>
-        <v>66</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F5" s="47">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -32980,72 +33330,72 @@
         <v>5</v>
       </c>
       <c r="B6" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44935.0)</f>
-        <v>44935</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44964.0)</f>
+        <v>44964</v>
       </c>
       <c r="C6" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="D6" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
+        <v>122</v>
       </c>
       <c r="E6" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
-        <v>59</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F6" s="47">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="48">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44965.0)</f>
+        <v>44965</v>
+      </c>
+      <c r="C7" s="47">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="47">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
+      </c>
+      <c r="E7" s="47">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="F7" s="47">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="47">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44936.0)</f>
-        <v>44936</v>
-      </c>
-      <c r="C7" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
-      </c>
-      <c r="D7" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102.0)</f>
-        <v>102</v>
-      </c>
-      <c r="E7" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
-      </c>
-      <c r="F7" s="47">
+    <row r="8">
+      <c r="A8" s="47">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="48">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44966.0)</f>
+        <v>44966</v>
+      </c>
+      <c r="C8" s="47">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="47">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44937.0)</f>
-        <v>44937</v>
-      </c>
-      <c r="C8" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
-      </c>
       <c r="D8" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),113.0)</f>
-        <v>113</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
       </c>
       <c r="E8" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F8" s="47">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -33058,24 +33408,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44938.0)</f>
-        <v>44938</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44967.0)</f>
+        <v>44967</v>
       </c>
       <c r="C9" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
       </c>
       <c r="D9" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
       </c>
       <c r="E9" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F9" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -33084,24 +33434,24 @@
         <v>9</v>
       </c>
       <c r="B10" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44939.0)</f>
-        <v>44939</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44970.0)</f>
+        <v>44970</v>
       </c>
       <c r="C10" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
-        <v>45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),6.0)</f>
+        <v>6</v>
       </c>
       <c r="D10" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),119.0)</f>
-        <v>119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),108.0)</f>
+        <v>108</v>
       </c>
       <c r="E10" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F10" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),10.0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -33110,24 +33460,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44943.0)</f>
-        <v>44943</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44971.0)</f>
+        <v>44971</v>
       </c>
       <c r="C11" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
-        <v>47</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="D11" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
-        <v>125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),101.0)</f>
+        <v>101</v>
       </c>
       <c r="E11" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F11" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -33136,24 +33486,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44944.0)</f>
-        <v>44944</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44972.0)</f>
+        <v>44972</v>
       </c>
       <c r="C12" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="D12" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),129.0)</f>
-        <v>129</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
       </c>
       <c r="E12" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F12" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
-        <v>4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -33162,20 +33512,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44945.0)</f>
-        <v>44945</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44973.0)</f>
+        <v>44973</v>
       </c>
       <c r="C13" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
-        <v>62</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="D13" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
-        <v>128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
+        <v>64</v>
       </c>
       <c r="E13" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="F13" s="47">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -33188,24 +33538,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44946.0)</f>
-        <v>44946</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44974.0)</f>
+        <v>44974</v>
       </c>
       <c r="C14" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64.0)</f>
-        <v>64</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
+        <v>14</v>
       </c>
       <c r="D14" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
-        <v>124</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
+        <v>59</v>
       </c>
       <c r="E14" s="47">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
         <v>16</v>
       </c>
       <c r="F14" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -33214,25 +33564,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44949.0)</f>
-        <v>44949</v>
-      </c>
-      <c r="C15" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
-        <v>18</v>
-      </c>
-      <c r="D15" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
-        <v>122</v>
-      </c>
-      <c r="E15" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
-      </c>
-      <c r="F15" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44978.0)</f>
+        <v>44978</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16">
       <c r="A16" s="47">
@@ -33240,25 +33578,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44950.0)</f>
-        <v>44950</v>
-      </c>
-      <c r="C16" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
-      </c>
-      <c r="D16" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),116.0)</f>
-        <v>116</v>
-      </c>
-      <c r="E16" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
-      </c>
-      <c r="F16" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44979.0)</f>
+        <v>44979</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17">
       <c r="A17" s="47">
@@ -33266,25 +33592,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44951.0)</f>
-        <v>44951</v>
-      </c>
-      <c r="C17" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
-      </c>
-      <c r="D17" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
-        <v>114</v>
-      </c>
-      <c r="E17" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
-      </c>
-      <c r="F17" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44980.0)</f>
+        <v>44980</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18">
       <c r="A18" s="47">
@@ -33292,25 +33606,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44952.0)</f>
-        <v>44952</v>
-      </c>
-      <c r="C18" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
-        <v>19</v>
-      </c>
-      <c r="D18" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
-        <v>111</v>
-      </c>
-      <c r="E18" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
-      </c>
-      <c r="F18" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44981.0)</f>
+        <v>44981</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19">
       <c r="A19" s="47">
@@ -33318,25 +33620,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44953.0)</f>
-        <v>44953</v>
-      </c>
-      <c r="C19" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
-      </c>
-      <c r="D19" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
-        <v>107</v>
-      </c>
-      <c r="E19" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
-      </c>
-      <c r="F19" s="47">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44984.0)</f>
+        <v>44984</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20">
       <c r="A20" s="47">
@@ -33344,8 +33634,8 @@
         <v>19</v>
       </c>
       <c r="B20" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44956.0)</f>
-        <v>44956</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44985.0)</f>
+        <v>44985</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -33353,14 +33643,11 @@
       <c r="F20" s="47"/>
     </row>
     <row r="21">
-      <c r="A21" s="47">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="48">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44957.0)</f>
-        <v>44957</v>
-      </c>
+      <c r="A21" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
@@ -47523,6 +47810,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44956.0)</f>
         <v>44956</v>
       </c>
+      <c r="C121" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
+      </c>
+      <c r="D121" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
+      </c>
       <c r="E121" s="53"/>
       <c r="F121" s="53"/>
       <c r="G121" s="53"/>
@@ -47543,6 +47838,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44957.0)</f>
         <v>44957</v>
       </c>
+      <c r="C122" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
+      </c>
+      <c r="D122" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
+      </c>
       <c r="E122" s="53"/>
       <c r="F122" s="53"/>
       <c r="G122" s="53"/>
@@ -47563,6 +47866,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44958.0)</f>
         <v>44958</v>
       </c>
+      <c r="C123" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),118.0)</f>
+        <v>118</v>
+      </c>
+      <c r="D123" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
+      </c>
       <c r="E123" s="53"/>
       <c r="F123" s="53"/>
       <c r="G123" s="53"/>
@@ -47583,6 +47894,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44959.0)</f>
         <v>44959</v>
       </c>
+      <c r="C124" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),115.0)</f>
+        <v>115</v>
+      </c>
+      <c r="D124" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
+      </c>
       <c r="E124" s="53"/>
       <c r="F124" s="53"/>
       <c r="G124" s="53"/>
@@ -47603,6 +47922,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44960.0)</f>
         <v>44960</v>
       </c>
+      <c r="C125" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
+      </c>
+      <c r="D125" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
+      </c>
       <c r="E125" s="53"/>
       <c r="F125" s="53"/>
       <c r="G125" s="53"/>
@@ -47623,6 +47950,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44963.0)</f>
         <v>44963</v>
       </c>
+      <c r="C126" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),128.0)</f>
+        <v>128</v>
+      </c>
+      <c r="D126" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
+      </c>
       <c r="E126" s="53"/>
       <c r="F126" s="53"/>
       <c r="G126" s="53"/>
@@ -47643,6 +47978,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44964.0)</f>
         <v>44964</v>
       </c>
+      <c r="C127" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
+        <v>124</v>
+      </c>
+      <c r="D127" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
+      </c>
       <c r="E127" s="53"/>
       <c r="F127" s="53"/>
       <c r="G127" s="53"/>
@@ -47663,6 +48006,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44965.0)</f>
         <v>44965</v>
       </c>
+      <c r="C128" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
+      </c>
+      <c r="D128" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
+        <v>147</v>
+      </c>
       <c r="E128" s="53"/>
       <c r="F128" s="53"/>
       <c r="G128" s="53"/>
@@ -47683,6 +48034,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44966.0)</f>
         <v>44966</v>
       </c>
+      <c r="C129" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),122.0)</f>
+        <v>122</v>
+      </c>
+      <c r="D129" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
+      </c>
       <c r="E129" s="53"/>
       <c r="F129" s="53"/>
       <c r="G129" s="53"/>
@@ -47703,6 +48062,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44967.0)</f>
         <v>44967</v>
       </c>
+      <c r="C130" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),121.0)</f>
+        <v>121</v>
+      </c>
+      <c r="D130" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),139.0)</f>
+        <v>139</v>
+      </c>
       <c r="E130" s="53"/>
       <c r="F130" s="53"/>
       <c r="G130" s="53"/>
@@ -47723,6 +48090,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44970.0)</f>
         <v>44970</v>
       </c>
+      <c r="C131" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),114.0)</f>
+        <v>114</v>
+      </c>
+      <c r="D131" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
+      </c>
       <c r="E131" s="53"/>
       <c r="F131" s="53"/>
       <c r="G131" s="53"/>
@@ -47743,6 +48118,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44971.0)</f>
         <v>44971</v>
       </c>
+      <c r="C132" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
+      </c>
+      <c r="D132" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
+      </c>
       <c r="E132" s="53"/>
       <c r="F132" s="53"/>
       <c r="G132" s="53"/>
@@ -47763,6 +48146,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44972.0)</f>
         <v>44972</v>
       </c>
+      <c r="C133" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),111.0)</f>
+        <v>111</v>
+      </c>
+      <c r="D133" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),127.0)</f>
+        <v>127</v>
+      </c>
       <c r="E133" s="53"/>
       <c r="F133" s="53"/>
       <c r="G133" s="53"/>
@@ -47783,6 +48174,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44973.0)</f>
         <v>44973</v>
       </c>
+      <c r="C134" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),76.0)</f>
+        <v>76</v>
+      </c>
+      <c r="D134" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
+      </c>
       <c r="E134" s="53"/>
       <c r="F134" s="53"/>
       <c r="G134" s="53"/>
@@ -47802,6 +48201,14 @@
       <c r="B135" s="51">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44974.0)</f>
         <v>44974</v>
+      </c>
+      <c r="C135" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),73.0)</f>
+        <v>73</v>
+      </c>
+      <c r="D135" s="52">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
       </c>
       <c r="E135" s="53"/>
       <c r="F135" s="53"/>
@@ -62823,7 +63230,7 @@
         <v>-5</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N19" si="9">N2</f>
+        <f t="shared" ref="N3:N21" si="9">N2</f>
         <v>0</v>
       </c>
       <c r="O3" s="20">
@@ -63583,7 +63990,7 @@
         <v>-48</v>
       </c>
       <c r="F15" s="20">
-        <f t="shared" ref="F15:F19" si="16">F14</f>
+        <f t="shared" ref="F15:F21" si="16">F14</f>
         <v>16</v>
       </c>
       <c r="G15" s="20">
@@ -63863,7 +64270,7 @@
         <v>-14</v>
       </c>
       <c r="J19" s="20">
-        <f>J18</f>
+        <f t="shared" ref="J19:J21" si="18">J18</f>
         <v>90</v>
       </c>
       <c r="K19" s="21">
@@ -63896,44 +64303,65 @@
         <f>WORKDAY($A$2,row(A18),Holidays!$B$2:$B$12)</f>
         <v>44956</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="20">
+        <f>B19</f>
+        <v>9</v>
+      </c>
+      <c r="C20" s="20">
+        <f>C19-1</f>
+        <v>106</v>
+      </c>
       <c r="D20" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="4"/>
-        <v>-116</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+        <v>-1</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="G20" s="20">
+        <f>G19+5+1</f>
+        <v>6</v>
+      </c>
       <c r="H20" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="5"/>
-        <v>-132</v>
-      </c>
-      <c r="J20" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
       <c r="K20" s="21">
         <f t="shared" si="7"/>
-        <v>-90</v>
-      </c>
-      <c r="L20" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="20">
+        <f t="shared" ref="L20:L21" si="19">L19</f>
+        <v>601</v>
+      </c>
       <c r="M20" s="21">
         <f t="shared" si="8"/>
-        <v>-601</v>
-      </c>
-      <c r="N20" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O20" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="P20" s="22">
         <f t="shared" si="10"/>
-        <v>-601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -63941,40 +64369,61 @@
         <f>WORKDAY($A$2,row(A19),Holidays!$B$2:$B$12)</f>
         <v>44957</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="20">
+        <f>B20+1-1</f>
+        <v>9</v>
+      </c>
+      <c r="C21" s="20">
+        <f>C20+5</f>
+        <v>111</v>
+      </c>
       <c r="D21" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="G21" s="20">
+        <f>G20-6+2</f>
+        <v>2</v>
+      </c>
       <c r="H21" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="20"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="18"/>
+        <v>90</v>
+      </c>
       <c r="K21" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="20">
+        <f t="shared" si="19"/>
+        <v>601</v>
+      </c>
       <c r="M21" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N21" s="20"/>
+      <c r="N21" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="P21" s="22">
         <f t="shared" si="10"/>
@@ -64074,44 +64523,65 @@
       <c r="A2" s="28">
         <v>44958.0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="29">
+        <f>'January 2023'!B21+2</f>
+        <v>11</v>
+      </c>
+      <c r="C2" s="29">
+        <f>'January 2023'!C21-1-1-1-1</f>
+        <v>107</v>
+      </c>
       <c r="D2" s="29">
         <f t="shared" ref="D2:D20" si="1">SUM(B2,C2)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E2" s="30">
-        <f>D2-'January 2023'!D20</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+        <f>D2-'January 2023'!D21</f>
+        <v>-2</v>
+      </c>
+      <c r="F2" s="29">
+        <f>'January 2023'!F21</f>
+        <v>16</v>
+      </c>
+      <c r="G2" s="29">
+        <f>'January 2023'!G21-2</f>
+        <v>0</v>
+      </c>
       <c r="H2" s="29">
         <f t="shared" ref="H2:H20" si="2">SUM(D2,F2,G2)</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="I2" s="30">
-        <f>H2-'January 2023'!H20</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="29"/>
+        <f>H2-'January 2023'!H21</f>
+        <v>-4</v>
+      </c>
+      <c r="J2" s="29">
+        <f>'January 2023'!J21-5</f>
+        <v>85</v>
+      </c>
       <c r="K2" s="30">
-        <f>J2-'January 2023'!J20</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="29"/>
+        <f>J2-'January 2023'!J21</f>
+        <v>-5</v>
+      </c>
+      <c r="L2" s="29">
+        <f>'January 2023'!L21-10</f>
+        <v>591</v>
+      </c>
       <c r="M2" s="30">
-        <f>L2-'January 2023'!L20</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="29"/>
+        <f>L2-'January 2023'!L21</f>
+        <v>-10</v>
+      </c>
+      <c r="N2" s="29">
+        <f>'January 2023'!N21</f>
+        <v>0</v>
+      </c>
       <c r="O2" s="29">
         <f t="shared" ref="O2:O20" si="3">SUM(L2,N2)</f>
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="P2" s="31">
-        <f>O2-'January 2023'!O20</f>
-        <v>0</v>
+        <f>O2-'January 2023'!O21</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="3">
@@ -64119,44 +64589,65 @@
         <f>WORKDAY($A$2,row(A1),Holidays!$B$2:$B$12)</f>
         <v>44959</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="29">
+        <f>B2</f>
+        <v>11</v>
+      </c>
+      <c r="C3" s="29">
+        <f>C2-1-1-1</f>
+        <v>104</v>
+      </c>
       <c r="D3" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E3" s="30">
         <f t="shared" ref="E3:E20" si="4">D3-D2</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+        <v>-3</v>
+      </c>
+      <c r="F3" s="29">
+        <f t="shared" ref="F3:F14" si="5">F2</f>
+        <v>16</v>
+      </c>
+      <c r="G3" s="29">
+        <f>G2+2</f>
+        <v>2</v>
+      </c>
       <c r="H3" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3:I20" si="5">H3-H2</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="29"/>
+        <f t="shared" ref="I3:I20" si="6">H3-H2</f>
+        <v>-1</v>
+      </c>
+      <c r="J3" s="29">
+        <f t="shared" ref="J3:J5" si="7">J2</f>
+        <v>85</v>
+      </c>
       <c r="K3" s="30">
-        <f t="shared" ref="K3:K20" si="6">J3-J2</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="29"/>
+        <f t="shared" ref="K3:K20" si="8">J3-J2</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="29">
+        <f>L2-5</f>
+        <v>586</v>
+      </c>
       <c r="M3" s="30">
-        <f t="shared" ref="M3:M20" si="7">L3-L2</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="29"/>
+        <f t="shared" ref="M3:M20" si="9">L3-L2</f>
+        <v>-5</v>
+      </c>
+      <c r="N3" s="29">
+        <f t="shared" ref="N3:N14" si="10">N2</f>
+        <v>0</v>
+      </c>
       <c r="O3" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="P3" s="31">
-        <f t="shared" ref="P3:P20" si="8">O3-O2</f>
-        <v>0</v>
+        <f t="shared" ref="P3:P20" si="11">O3-O2</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
@@ -64164,44 +64655,65 @@
         <f>WORKDAY($A$2,row(A2),Holidays!$B$2:$B$12)</f>
         <v>44960</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="29">
+        <f>B3+1+1-2-10</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <f>C3+43</f>
+        <v>147</v>
+      </c>
       <c r="D4" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="E4" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+        <v>33</v>
+      </c>
+      <c r="F4" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G4" s="29">
+        <f>G3-2+12</f>
+        <v>12</v>
+      </c>
       <c r="H4" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="I4" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="29"/>
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="J4" s="29">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
       <c r="K4" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="29"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="29">
+        <f>L3-10</f>
+        <v>576</v>
+      </c>
       <c r="M4" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="29"/>
+        <f t="shared" si="9"/>
+        <v>-10</v>
+      </c>
+      <c r="N4" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O4" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="P4" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="5">
@@ -64209,44 +64721,65 @@
         <f>WORKDAY($A$2,row(A3),Holidays!$B$2:$B$12)</f>
         <v>44963</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="29">
+        <f>B4-1+3</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="29">
+        <f>C4-17-2-4+1</f>
+        <v>125</v>
+      </c>
       <c r="D5" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E5" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+        <v>-20</v>
+      </c>
+      <c r="F5" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G5" s="29">
+        <f>G4-12+4-4</f>
+        <v>0</v>
+      </c>
       <c r="H5" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="I5" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="29"/>
+        <f t="shared" si="6"/>
+        <v>-32</v>
+      </c>
+      <c r="J5" s="29">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
       <c r="K5" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="29"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="29">
+        <f>L4-10-5</f>
+        <v>561</v>
+      </c>
       <c r="M5" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="29"/>
+        <f t="shared" si="9"/>
+        <v>-15</v>
+      </c>
+      <c r="N5" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O5" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="P5" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-15</v>
       </c>
     </row>
     <row r="6">
@@ -64254,43 +64787,64 @@
         <f>WORKDAY($A$2,row(A4),Holidays!$B$2:$B$12)</f>
         <v>44964</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="B6" s="29">
+        <f>B5-3+2</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="29">
+        <f>C5-3</f>
+        <v>122</v>
+      </c>
       <c r="D6" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E6" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+        <v>-4</v>
+      </c>
+      <c r="F6" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="29">
+        <f>G5+2-2</f>
+        <v>0</v>
+      </c>
       <c r="H6" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I6" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="29"/>
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="J6" s="29">
+        <f>J5+2</f>
+        <v>87</v>
+      </c>
       <c r="K6" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="29"/>
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L6" s="29">
+        <f t="shared" ref="L6:L9" si="13">L5</f>
+        <v>561</v>
+      </c>
       <c r="M6" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="29"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O6" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="P6" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -64299,43 +64853,64 @@
         <f>WORKDAY($A$2,row(A5),Holidays!$B$2:$B$12)</f>
         <v>44965</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="29">
+        <f t="shared" ref="B7:C7" si="12">B6-2</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="29">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
       <c r="D7" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E7" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+        <v>-4</v>
+      </c>
+      <c r="F7" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G7" s="29">
+        <f>G6+2+8+1</f>
+        <v>11</v>
+      </c>
       <c r="H7" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="I7" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="29"/>
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" ref="J7:J8" si="14">J6</f>
+        <v>87</v>
+      </c>
       <c r="K7" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="29"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="29">
+        <f t="shared" si="13"/>
+        <v>561</v>
+      </c>
       <c r="M7" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="29"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O7" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="P7" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -64344,43 +64919,64 @@
         <f>WORKDAY($A$2,row(A6),Holidays!$B$2:$B$12)</f>
         <v>44966</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="29">
+        <f>B7+4</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="29">
+        <f>C7-5-3+6</f>
+        <v>118</v>
+      </c>
       <c r="D8" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="E8" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="29">
+        <f>G7-11+2</f>
+        <v>2</v>
+      </c>
       <c r="H8" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="29"/>
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="J8" s="29">
+        <f t="shared" si="14"/>
+        <v>87</v>
+      </c>
       <c r="K8" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="29"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
+        <f t="shared" si="13"/>
+        <v>561</v>
+      </c>
       <c r="M8" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="29"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O8" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="P8" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -64389,43 +64985,64 @@
         <f>WORKDAY($A$2,row(A7),Holidays!$B$2:$B$12)</f>
         <v>44967</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="29">
+        <f>B8+2</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="29">
+        <f>C8-2-1</f>
+        <v>115</v>
+      </c>
       <c r="D9" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E9" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+        <v>-1</v>
+      </c>
+      <c r="F9" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="29">
+        <f>G8-2+2</f>
+        <v>2</v>
+      </c>
       <c r="H9" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I9" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="29"/>
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J9" s="29">
+        <f>J8-4</f>
+        <v>83</v>
+      </c>
       <c r="K9" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="29"/>
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="L9" s="29">
+        <f t="shared" si="13"/>
+        <v>561</v>
+      </c>
       <c r="M9" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="29"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O9" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="P9" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -64434,44 +65051,65 @@
         <f>WORKDAY($A$2,row(A8),Holidays!$B$2:$B$12)</f>
         <v>44970</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="29">
+        <f>B9</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="29">
+        <f>C9-5-2</f>
+        <v>108</v>
+      </c>
       <c r="D10" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E10" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+        <v>-7</v>
+      </c>
+      <c r="F10" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="29">
+        <f>G9-2+10</f>
+        <v>10</v>
+      </c>
       <c r="H10" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I10" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="29"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
+        <f>J9+1</f>
+        <v>84</v>
+      </c>
       <c r="K10" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="29"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="29">
+        <f>L9-10-10</f>
+        <v>541</v>
+      </c>
       <c r="M10" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="29"/>
+        <f t="shared" si="9"/>
+        <v>-20</v>
+      </c>
+      <c r="N10" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O10" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="P10" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-20</v>
       </c>
     </row>
     <row r="11">
@@ -64479,44 +65117,65 @@
         <f>WORKDAY($A$2,row(A9),Holidays!$B$2:$B$12)</f>
         <v>44971</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="29">
+        <f>B10+10</f>
+        <v>16</v>
+      </c>
+      <c r="C11" s="29">
+        <f>C10-7</f>
+        <v>101</v>
+      </c>
       <c r="D11" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E11" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G11" s="29">
+        <f>G10-10</f>
+        <v>0</v>
+      </c>
       <c r="H11" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="I11" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="29"/>
+        <f t="shared" si="6"/>
+        <v>-7</v>
+      </c>
+      <c r="J11" s="29">
+        <f>J10-2</f>
+        <v>82</v>
+      </c>
       <c r="K11" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="29"/>
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="L11" s="29">
+        <f>L10-5</f>
+        <v>536</v>
+      </c>
       <c r="M11" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="29"/>
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="N11" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O11" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="P11" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-5</v>
       </c>
     </row>
     <row r="12">
@@ -64524,44 +65183,65 @@
         <f>WORKDAY($A$2,row(A10),Holidays!$B$2:$B$12)</f>
         <v>44972</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="29">
+        <f t="shared" ref="B12:C12" si="15">B11-3</f>
+        <v>13</v>
+      </c>
+      <c r="C12" s="29">
+        <f t="shared" si="15"/>
+        <v>98</v>
+      </c>
       <c r="D12" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E12" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+        <v>-6</v>
+      </c>
+      <c r="F12" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G12" s="29">
+        <f>G11</f>
+        <v>0</v>
+      </c>
       <c r="H12" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I12" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="29"/>
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="J12" s="29">
+        <f>J11-1</f>
+        <v>81</v>
+      </c>
       <c r="K12" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="29"/>
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="L12" s="29">
+        <f>L11-10-3</f>
+        <v>523</v>
+      </c>
       <c r="M12" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="29"/>
+        <f t="shared" si="9"/>
+        <v>-13</v>
+      </c>
+      <c r="N12" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O12" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="P12" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-13</v>
       </c>
     </row>
     <row r="13">
@@ -64569,44 +65249,65 @@
         <f>WORKDAY($A$2,row(A11),Holidays!$B$2:$B$12)</f>
         <v>44973</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="29">
+        <f>B12-1</f>
+        <v>12</v>
+      </c>
+      <c r="C13" s="29">
+        <f>C12-30-4</f>
+        <v>64</v>
+      </c>
       <c r="D13" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E13" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+        <v>-35</v>
+      </c>
+      <c r="F13" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G13" s="29">
+        <f>G12+2</f>
+        <v>2</v>
+      </c>
       <c r="H13" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I13" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="29"/>
+        <f t="shared" si="6"/>
+        <v>-33</v>
+      </c>
+      <c r="J13" s="29">
+        <f>J12</f>
+        <v>81</v>
+      </c>
       <c r="K13" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="29"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
+        <f t="shared" ref="L13:L14" si="16">L12-10</f>
+        <v>513</v>
+      </c>
       <c r="M13" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="29"/>
+        <f t="shared" si="9"/>
+        <v>-10</v>
+      </c>
+      <c r="N13" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O13" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="P13" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="14">
@@ -64614,44 +65315,65 @@
         <f>WORKDAY($A$2,row(A12),Holidays!$B$2:$B$12)</f>
         <v>44974</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="29">
+        <f>B13+2</f>
+        <v>14</v>
+      </c>
+      <c r="C14" s="29">
+        <f>C13-1-2-2</f>
+        <v>59</v>
+      </c>
       <c r="D14" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E14" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+        <v>-3</v>
+      </c>
+      <c r="F14" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="G14" s="29">
+        <f>G13-2</f>
+        <v>0</v>
+      </c>
       <c r="H14" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I14" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="29"/>
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="J14" s="29">
+        <f>J13-4</f>
+        <v>77</v>
+      </c>
       <c r="K14" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="29"/>
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="L14" s="29">
+        <f t="shared" si="16"/>
+        <v>503</v>
+      </c>
       <c r="M14" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="29"/>
+        <f t="shared" si="9"/>
+        <v>-10</v>
+      </c>
+      <c r="N14" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="O14" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="P14" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-10</v>
       </c>
     </row>
     <row r="15">
@@ -64667,7 +65389,7 @@
       </c>
       <c r="E15" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -64676,18 +65398,18 @@
         <v>0</v>
       </c>
       <c r="I15" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-89</v>
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="30">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-77</v>
       </c>
       <c r="L15" s="29"/>
       <c r="M15" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-503</v>
       </c>
       <c r="N15" s="29"/>
       <c r="O15" s="29">
@@ -64695,8 +65417,8 @@
         <v>0</v>
       </c>
       <c r="P15" s="31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-503</v>
       </c>
     </row>
     <row r="16">
@@ -64721,17 +65443,17 @@
         <v>0</v>
       </c>
       <c r="I16" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J16" s="29"/>
       <c r="K16" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L16" s="29"/>
       <c r="M16" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N16" s="29"/>
@@ -64740,7 +65462,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -64766,17 +65488,17 @@
         <v>0</v>
       </c>
       <c r="I17" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N17" s="29"/>
@@ -64785,7 +65507,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -64811,17 +65533,17 @@
         <v>0</v>
       </c>
       <c r="I18" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L18" s="29"/>
       <c r="M18" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N18" s="29"/>
@@ -64830,7 +65552,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -64856,17 +65578,17 @@
         <v>0</v>
       </c>
       <c r="I19" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N19" s="29"/>
@@ -64875,7 +65597,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -64901,17 +65623,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N20" s="29"/>
@@ -64920,7 +65642,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
